--- a/artfynd/A 34089-2023.xlsx
+++ b/artfynd/A 34089-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111809638</v>
+        <v>111809606</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111809580</v>
+        <v>111809656</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>610571.4165256479</v>
+        <v>610542.5625081829</v>
       </c>
       <c r="R3" t="n">
-        <v>7180702.680798599</v>
+        <v>7180707.182562917</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111809656</v>
+        <v>111809580</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>610542.5625081829</v>
+        <v>610571.4165256479</v>
       </c>
       <c r="R4" t="n">
-        <v>7180707.182562917</v>
+        <v>7180702.680798599</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 34089-2023.xlsx
+++ b/artfynd/A 34089-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111809606</v>
+        <v>111809580</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>610564.5541715119</v>
+        <v>610571.4165256479</v>
       </c>
       <c r="R2" t="n">
-        <v>7180691.309759256</v>
+        <v>7180702.680798599</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111809580</v>
+        <v>111809606</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>610571.4165256479</v>
+        <v>610564.5541715119</v>
       </c>
       <c r="R4" t="n">
-        <v>7180702.680798599</v>
+        <v>7180691.309759256</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 34089-2023.xlsx
+++ b/artfynd/A 34089-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111809580</v>
+        <v>111809606</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>610571.4165256479</v>
+        <v>610564.5541715119</v>
       </c>
       <c r="R2" t="n">
-        <v>7180702.680798599</v>
+        <v>7180691.309759256</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111809606</v>
+        <v>111809580</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>610564.5541715119</v>
+        <v>610571.4165256479</v>
       </c>
       <c r="R4" t="n">
-        <v>7180691.309759256</v>
+        <v>7180702.680798599</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 34089-2023.xlsx
+++ b/artfynd/A 34089-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111809606</v>
+        <v>111809638</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AD2" t="b">

--- a/artfynd/A 34089-2023.xlsx
+++ b/artfynd/A 34089-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111809638</v>
+        <v>111809580</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>610564.5541715119</v>
+        <v>610571.4165256479</v>
       </c>
       <c r="R2" t="n">
-        <v>7180691.309759256</v>
+        <v>7180702.680798599</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111809580</v>
+        <v>111809638</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>610571.4165256479</v>
+        <v>610564.5541715119</v>
       </c>
       <c r="R4" t="n">
-        <v>7180702.680798599</v>
+        <v>7180691.309759256</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 34089-2023.xlsx
+++ b/artfynd/A 34089-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111809580</v>
+        <v>111809656</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>610571.4165256479</v>
+        <v>610542.5625081829</v>
       </c>
       <c r="R2" t="n">
-        <v>7180702.680798599</v>
+        <v>7180707.182562917</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111809656</v>
+        <v>111809580</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>610542.5625081829</v>
+        <v>610571.4165256479</v>
       </c>
       <c r="R3" t="n">
-        <v>7180707.182562917</v>
+        <v>7180702.680798599</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,7 +906,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111809638</v>
+        <v>111809606</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 34089-2023.xlsx
+++ b/artfynd/A 34089-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111809656</v>
+        <v>111809580</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>610542.5625081829</v>
+        <v>610571.4165256479</v>
       </c>
       <c r="R2" t="n">
-        <v>7180707.182562917</v>
+        <v>7180702.680798599</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111809580</v>
+        <v>111809638</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>610571.4165256479</v>
+        <v>610564.5541715119</v>
       </c>
       <c r="R3" t="n">
-        <v>7180702.680798599</v>
+        <v>7180691.309759256</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,7 +906,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111809606</v>
+        <v>111809656</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>610564.5541715119</v>
+        <v>610542.5625081829</v>
       </c>
       <c r="R4" t="n">
-        <v>7180691.309759256</v>
+        <v>7180707.182562917</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 34089-2023.xlsx
+++ b/artfynd/A 34089-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111809580</v>
+        <v>111809638</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>610571.4165256479</v>
+        <v>610564.5541715119</v>
       </c>
       <c r="R2" t="n">
-        <v>7180702.680798599</v>
+        <v>7180691.309759256</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111809638</v>
+        <v>111809580</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>610564.5541715119</v>
+        <v>610571.4165256479</v>
       </c>
       <c r="R3" t="n">
-        <v>7180691.309759256</v>
+        <v>7180702.680798599</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AD3" t="b">

--- a/artfynd/A 34089-2023.xlsx
+++ b/artfynd/A 34089-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111809638</v>
+        <v>111809580</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>610564.5541715119</v>
+        <v>610571</v>
       </c>
       <c r="R2" t="n">
-        <v>7180691.309759256</v>
+        <v>7180703</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111809580</v>
+        <v>111809656</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>610571.4165256479</v>
+        <v>610543</v>
       </c>
       <c r="R3" t="n">
-        <v>7180702.680798599</v>
+        <v>7180707</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,7 +906,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111809656</v>
+        <v>111809606</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>610542.5625081829</v>
+        <v>610565</v>
       </c>
       <c r="R4" t="n">
-        <v>7180707.182562917</v>
+        <v>7180691</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 34089-2023.xlsx
+++ b/artfynd/A 34089-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111809580</v>
+        <v>111809638</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>610571</v>
+        <v>610565</v>
       </c>
       <c r="R2" t="n">
-        <v>7180703</v>
+        <v>7180691</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111809606</v>
+        <v>111809580</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>610565</v>
+        <v>610571</v>
       </c>
       <c r="R4" t="n">
-        <v>7180691</v>
+        <v>7180703</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AD4" t="b">
